--- a/CloudServices_AWS_Azure.xlsx
+++ b/CloudServices_AWS_Azure.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EA407C-5790-405D-BC19-4F9667E4A75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F946177-6C7C-4C71-9793-1173E19A3785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79F51C6E-87C4-4844-B16F-DA8F8E2A09EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{79F51C6E-87C4-4844-B16F-DA8F8E2A09EF}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="2" r:id="rId1"/>
@@ -1492,9 +1492,6 @@
     <t>Funcionalidad de WAF que bloquea tráfico bot no deseado exigiendo completar desafíos captcha antes de acceder a recursos protegidos.</t>
   </si>
   <si>
-    <t>Servicio centralizado y automatizado de protección de datos en AWS, que aplica políticas de respaldo a escala.</t>
-  </si>
-  <si>
     <t>Servicio que proporciona volúmenes de almacenamiento en bloque persistente para instancias EC2, replicados en la zona de disponibilidad.</t>
   </si>
   <si>
@@ -2260,9 +2257,6 @@
     <t>Backup</t>
   </si>
   <si>
-    <t>Servicio unificado de respaldos.</t>
-  </si>
-  <si>
     <t>Servicio de copia de seguridad y restauración.</t>
   </si>
   <si>
@@ -3635,6 +3629,12 @@
   </si>
   <si>
     <t>Servicios Cloud - Microsoft Azure</t>
+  </si>
+  <si>
+    <t>Servicio centralizado y automatizado de protección de datos en AWS, que aplica políticas de copias de seguridad a escala.</t>
+  </si>
+  <si>
+    <t>Servicio unificado de copias de seguridad.</t>
   </si>
 </sst>
 </file>
@@ -4132,8 +4132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E2E6E8-3451-4F7B-811E-8187F7AC3AB0}">
   <dimension ref="A1:C239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B191" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -4146,7 +4146,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -5190,7 +5190,7 @@
         <v>112</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>113</v>
@@ -5212,7 +5212,7 @@
         <v>112</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>354</v>
@@ -6125,7 +6125,7 @@
         <v>201</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>437</v>
@@ -6224,7 +6224,7 @@
         <v>209</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>446</v>
@@ -6312,7 +6312,7 @@
         <v>209</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>454</v>
@@ -6356,7 +6356,7 @@
         <v>209</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>222</v>
@@ -6656,7 +6656,7 @@
         <v>254</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>484</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6667,7 +6667,7 @@
         <v>255</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6678,7 +6678,7 @@
         <v>256</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6689,7 +6689,7 @@
         <v>257</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6700,7 +6700,7 @@
         <v>258</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6711,7 +6711,7 @@
         <v>259</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6722,7 +6722,7 @@
         <v>260</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6733,7 +6733,7 @@
         <v>261</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6744,7 +6744,7 @@
         <v>262</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6755,7 +6755,7 @@
         <v>263</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6766,7 +6766,7 @@
         <v>264</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -7039,7 +7039,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -7057,266 +7057,266 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7324,10 +7324,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7335,10 +7335,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7346,10 +7346,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7357,10 +7357,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7368,10 +7368,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7379,10 +7379,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7390,10 +7390,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7401,10 +7401,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7412,10 +7412,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7423,10 +7423,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7434,10 +7434,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7445,10 +7445,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7467,10 +7467,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7478,10 +7478,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7489,10 +7489,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7500,76 +7500,76 @@
         <v>3</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>539</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7577,120 +7577,120 @@
         <v>77</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7698,10 +7698,10 @@
         <v>77</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7709,10 +7709,10 @@
         <v>77</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7720,10 +7720,10 @@
         <v>77</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7731,10 +7731,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7742,10 +7742,10 @@
         <v>77</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7753,10 +7753,10 @@
         <v>77</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7764,10 +7764,10 @@
         <v>77</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7775,10 +7775,10 @@
         <v>77</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7786,10 +7786,10 @@
         <v>85</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7797,10 +7797,10 @@
         <v>85</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7808,10 +7808,10 @@
         <v>85</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7819,10 +7819,10 @@
         <v>85</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7830,10 +7830,10 @@
         <v>85</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7841,10 +7841,10 @@
         <v>85</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7852,10 +7852,10 @@
         <v>85</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7863,10 +7863,10 @@
         <v>85</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7874,10 +7874,10 @@
         <v>85</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7885,10 +7885,10 @@
         <v>85</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7896,560 +7896,560 @@
         <v>85</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>578</v>
-      </c>
       <c r="C81" s="6" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>591</v>
-      </c>
       <c r="C90" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>601</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>606</v>
-      </c>
       <c r="C105" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B115" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>624</v>
-      </c>
       <c r="C122" s="6" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -8457,10 +8457,10 @@
         <v>123</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -8468,10 +8468,10 @@
         <v>123</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -8479,10 +8479,10 @@
         <v>123</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -8490,10 +8490,10 @@
         <v>123</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -8501,10 +8501,10 @@
         <v>123</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -8512,10 +8512,10 @@
         <v>123</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8523,10 +8523,10 @@
         <v>167</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -8534,10 +8534,10 @@
         <v>167</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -8545,10 +8545,10 @@
         <v>167</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -8556,10 +8556,10 @@
         <v>167</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -8567,10 +8567,10 @@
         <v>167</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -8578,10 +8578,10 @@
         <v>167</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -8589,10 +8589,10 @@
         <v>167</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -8600,10 +8600,10 @@
         <v>167</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -8611,10 +8611,10 @@
         <v>167</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -8622,10 +8622,10 @@
         <v>167</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -8633,10 +8633,10 @@
         <v>167</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -8644,10 +8644,10 @@
         <v>167</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -8655,10 +8655,10 @@
         <v>167</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -8666,10 +8666,10 @@
         <v>167</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -8677,10 +8677,10 @@
         <v>167</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -8688,10 +8688,10 @@
         <v>167</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -8699,186 +8699,186 @@
         <v>167</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B153" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>657</v>
-      </c>
       <c r="C153" s="6" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B159" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B159" s="10" t="s">
-        <v>663</v>
-      </c>
       <c r="C159" s="6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>665</v>
-      </c>
       <c r="C161" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B163" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B163" s="10" t="s">
-        <v>667</v>
-      </c>
       <c r="C163" s="6" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -9066,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544860B3-7772-43CA-A838-FEC3E12F5482}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -9075,13 +9075,13 @@
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="57.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -9093,1359 +9093,1359 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>679</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>686</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="D9" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>729</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>749</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>754</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>759</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>764</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>772</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>780</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>793</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="D33" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>815</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>819</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>828</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>852</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>856</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B48" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>859</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>868</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>872</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>876</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>879</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>883</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>887</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>888</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>892</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>897</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>900</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>904</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>912</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>916</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>920</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>924</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="5" t="s">
         <v>928</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="D66" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="5" t="s">
         <v>933</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="E67" s="5" t="s">
         <v>937</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="E68" s="5" t="s">
         <v>941</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>945</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="E70" s="5" t="s">
         <v>949</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>950</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="8" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="E71" s="5" t="s">
         <v>953</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
+        <v>954</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="D72" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>959</v>
-      </c>
       <c r="E72" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="5" t="s">
         <v>961</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>964</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="E74" s="5" t="s">
         <v>965</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>968</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="D75" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="E75" s="5" t="s">
         <v>970</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="5" t="s">
         <v>974</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>975</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="E77" s="5" t="s">
         <v>978</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>981</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>984</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="D80" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="E80" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="E81" s="5" t="s">
         <v>993</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -10453,50 +10453,50 @@
         <v>36</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="E82" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="D83" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="D84" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="E84" s="5" t="s">
         <v>1006</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -10504,84 +10504,84 @@
         <v>225</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="D86" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>1012</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="E87" s="5" t="s">
         <v>1016</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="D88" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="E88" s="5" t="s">
         <v>1021</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>1026</v>
       </c>
     </row>
   </sheetData>
